--- a/doc/moteur/Moteur_RF-370CA_mesures.xlsx
+++ b/doc/moteur/Moteur_RF-370CA_mesures.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\OneDrive - Education Vaud\2ndYear\PROJ\2230_TubePitotDeporte\doc\moteur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\moteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8910844-F2CD-4C6B-AD27-B97446F1F9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -412,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -433,10 +434,6 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -450,6 +447,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +475,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -487,7 +487,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -513,7 +512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -728,7 +727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2035397279"/>
@@ -790,7 +789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2035400191"/>
@@ -807,7 +806,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -815,6 +813,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -838,7 +837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -852,7 +851,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -889,7 +888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -915,7 +913,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1795,7 +1793,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1821,7 +1818,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1859,7 +1856,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62588271"/>
@@ -1915,7 +1912,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1941,7 +1937,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1979,7 +1975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62586607"/>
@@ -1997,7 +1993,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2005,6 +2000,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2028,7 +2024,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2042,7 +2038,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2054,7 +2050,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2080,7 +2075,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2232,7 +2227,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2022024207"/>
@@ -2294,7 +2289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2022030863"/>
@@ -2311,7 +2306,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2319,6 +2313,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2342,7 +2337,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2356,7 +2351,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2368,7 +2363,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2394,7 +2388,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2617,7 +2611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2643,7 +2636,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2681,7 +2674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="266196719"/>
@@ -2736,7 +2729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2762,7 +2754,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fr-FR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2800,7 +2792,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="266192975"/>
@@ -2817,7 +2809,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2825,6 +2816,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2848,7 +2840,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5069,7 +5061,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E99FB7-320E-3FE5-46E3-A1335456F150}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5105,7 +5097,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BED79A-6914-142F-A11B-D1FABAA894AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5141,7 +5133,7 @@
         <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB191FCA-41BF-0B3F-1404-5FFF7D65DC61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5177,7 +5169,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B3B724-17F5-05F3-C247-6EF2402A1995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,25 +5190,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>262178</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>173938</xdr:rowOff>
+      <xdr:rowOff>150126</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6786803" y="12439650"/>
-          <a:ext cx="671271" cy="2450413"/>
+          <a:off x="7200902" y="11077575"/>
+          <a:ext cx="685798" cy="3031439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5262,27 +5260,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>84484</xdr:rowOff>
+      <xdr:colOff>55700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>377687</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>51354</xdr:rowOff>
+      <xdr:colOff>391974</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>37066</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+            <xdr:cNvPr id="5" name="ZoneTexte 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6566038" y="14419609"/>
-              <a:ext cx="945874" cy="538370"/>
+              <a:off x="7042288" y="13486159"/>
+              <a:ext cx="988736" cy="509795"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5310,6 +5314,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5365,13 +5370,19 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="ZoneTexte 4"/>
+            <xdr:cNvPr id="5" name="ZoneTexte 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6566038" y="14419609"/>
-              <a:ext cx="945874" cy="538370"/>
+              <a:off x="7042288" y="13486159"/>
+              <a:ext cx="988736" cy="509795"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5399,6 +5410,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="fr-CH" sz="2400" b="0" i="0">
                   <a:solidFill>
@@ -5453,7 +5465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5"/>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5775,38 +5793,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X58" sqref="X58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.265625" customWidth="1"/>
+    <col min="25" max="25" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5826,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -5846,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -5867,7 +5885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -5888,7 +5906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -5909,7 +5927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -5924,7 +5942,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -5954,7 +5972,7 @@
         <v>0.95500000000000007</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -5969,7 +5987,7 @@
         <v>0.95714285714285718</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -5984,7 +6002,7 @@
         <v>0.96125000000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -5999,7 +6017,7 @@
         <v>0.96444444444444444</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -6014,7 +6032,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
         <v>11</v>
       </c>
@@ -6029,7 +6047,7 @@
         <v>0.96181818181818179</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>12</v>
       </c>
@@ -6044,8 +6062,8 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -6055,93 +6073,78 @@
       <c r="H50" s="6"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B51" s="8"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B52" s="8"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52">
         <v>10.7</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="8"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="8"/>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="25" t="s">
         <v>4</v>
       </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B55" s="8"/>
-      <c r="C55" s="34">
+      <c r="C55" s="32">
         <v>0</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <v>0</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="20">
         <f>(C55/$D$52) *1000</f>
         <v>0</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="21">
         <v>0</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="22">
         <v>0</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H55" s="23">
         <v>0</v>
       </c>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56" s="8"/>
-      <c r="C56" s="29">
+      <c r="C56" s="27">
         <v>0.82</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="29">
         <v>382</v>
       </c>
       <c r="E56" s="17">
@@ -6159,12 +6162,12 @@
       </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B57" s="8"/>
-      <c r="C57" s="29">
+      <c r="C57" s="27">
         <v>1.8</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="29">
         <v>840</v>
       </c>
       <c r="E57" s="17">
@@ -6182,12 +6185,12 @@
       </c>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B58" s="8"/>
-      <c r="C58" s="29">
+      <c r="C58" s="27">
         <v>2.78</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="29">
         <v>1293</v>
       </c>
       <c r="E58" s="17">
@@ -6205,12 +6208,12 @@
       </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59" s="8"/>
-      <c r="C59" s="29">
+      <c r="C59" s="27">
         <v>3.75</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="29">
         <v>1750</v>
       </c>
       <c r="E59" s="17">
@@ -6228,12 +6231,12 @@
       </c>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B60" s="8"/>
-      <c r="C60" s="29">
+      <c r="C60" s="27">
         <v>4.75</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="29">
         <v>2210</v>
       </c>
       <c r="E60" s="17">
@@ -6251,12 +6254,12 @@
       </c>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B61" s="8"/>
-      <c r="C61" s="29">
+      <c r="C61" s="27">
         <v>5.73</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="29">
         <v>2667</v>
       </c>
       <c r="E61" s="17">
@@ -6274,12 +6277,12 @@
       </c>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62" s="8"/>
-      <c r="C62" s="29">
+      <c r="C62" s="27">
         <v>6.7</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="29">
         <v>3124</v>
       </c>
       <c r="E62" s="17">
@@ -6297,12 +6300,12 @@
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B63" s="8"/>
-      <c r="C63" s="29">
+      <c r="C63" s="27">
         <v>7.69</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="29">
         <v>3584</v>
       </c>
       <c r="E63" s="17">
@@ -6320,12 +6323,12 @@
       </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B64" s="8"/>
-      <c r="C64" s="29">
+      <c r="C64" s="27">
         <v>8.68</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="29">
         <v>4044</v>
       </c>
       <c r="E64" s="17">
@@ -6343,12 +6346,12 @@
       </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65" s="8"/>
-      <c r="C65" s="29">
+      <c r="C65" s="27">
         <v>9.66</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="29">
         <v>4494</v>
       </c>
       <c r="E65" s="17">
@@ -6366,12 +6369,12 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B66" s="8"/>
-      <c r="C66" s="29">
+      <c r="C66" s="27">
         <v>10.58</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="29">
         <v>4954</v>
       </c>
       <c r="E66" s="17">
@@ -6389,12 +6392,12 @@
       </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B67" s="8"/>
-      <c r="C67" s="32">
+      <c r="C67" s="30">
         <v>11.52</v>
       </c>
-      <c r="D67" s="33">
+      <c r="D67" s="31">
         <v>5406</v>
       </c>
       <c r="E67" s="17">
@@ -6412,7 +6415,7 @@
       </c>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -6422,16 +6425,16 @@
       <c r="H68" s="11"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D79" si="2">D56/C56</f>
+        <f t="shared" ref="D72:D78" si="2">D56/C56</f>
         <v>465.85365853658539</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>466.66666666666663</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>465.10791366906477</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>465.26315789473682</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C77" t="s">
         <v>11</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>465.44502617801044</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>466.26865671641792</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -6494,7 +6497,7 @@
         <v>466.0598179453836</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
         <v>11</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>465.89861751152074</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>465.21739130434781</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
         <v>11</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>468.24196597353495</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
         <v>11</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>469.27083333333337</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
         <v>12</v>
       </c>

--- a/doc/moteur/Moteur_RF-370CA_mesures.xlsx
+++ b/doc/moteur/Moteur_RF-370CA_mesures.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\School\PROJ\2230_TubePitotDeporte\doc\moteur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mevricchier\Documents\2230_TubePitotDeporte\doc\moteur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8910844-F2CD-4C6B-AD27-B97446F1F9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -413,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -450,6 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +475,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -512,7 +512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -727,7 +727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2035397279"/>
@@ -789,7 +789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2035400191"/>
@@ -806,6 +806,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -813,7 +814,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -837,7 +837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -851,7 +851,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -888,6 +888,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -913,7 +914,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1793,6 +1794,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1818,7 +1820,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1856,7 +1858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62588271"/>
@@ -1912,6 +1914,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1937,7 +1940,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1975,7 +1978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62586607"/>
@@ -1993,6 +1996,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2000,7 +2004,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2024,7 +2027,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2038,7 +2041,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2075,7 +2078,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2227,7 +2230,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2022024207"/>
@@ -2289,7 +2292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2022030863"/>
@@ -2306,6 +2309,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2313,7 +2317,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2337,7 +2340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2351,7 +2354,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2388,7 +2391,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2636,7 +2639,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2674,7 +2677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="266196719"/>
@@ -2754,7 +2757,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2792,7 +2795,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="266192975"/>
@@ -2809,6 +2812,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2816,7 +2820,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2840,7 +2843,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5270,8 +5273,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>37066</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="ZoneTexte 4">
@@ -5367,7 +5370,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="ZoneTexte 4">
@@ -5793,24 +5796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" customWidth="1"/>
-    <col min="25" max="25" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
@@ -5818,13 +5821,13 @@
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -5864,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>4</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>6</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>0.95500000000000007</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>7</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>0.95714285714285718</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>8</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>0.96125000000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>9</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>0.96444444444444444</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>10</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>11</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>0.96181818181818179</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>12</v>
       </c>
@@ -6062,8 +6065,8 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -6073,11 +6076,11 @@
       <c r="H50" s="6"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" t="s">
         <v>6</v>
@@ -6090,11 +6093,11 @@
       </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="24" t="s">
         <v>5</v>
@@ -6116,7 +6119,7 @@
       </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="32">
         <v>0</v>
@@ -6139,7 +6142,7 @@
       </c>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="27">
         <v>0.82</v>
@@ -6162,7 +6165,7 @@
       </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="27">
         <v>1.8</v>
@@ -6185,7 +6188,7 @@
       </c>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="27">
         <v>2.78</v>
@@ -6208,7 +6211,7 @@
       </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="27">
         <v>3.75</v>
@@ -6231,7 +6234,7 @@
       </c>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
       <c r="C60" s="27">
         <v>4.75</v>
@@ -6254,7 +6257,7 @@
       </c>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="27">
         <v>5.73</v>
@@ -6277,7 +6280,7 @@
       </c>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="27">
         <v>6.7</v>
@@ -6300,7 +6303,7 @@
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="27">
         <v>7.69</v>
@@ -6323,7 +6326,7 @@
       </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="27">
         <v>8.68</v>
@@ -6346,7 +6349,7 @@
       </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="27">
         <v>9.66</v>
@@ -6369,7 +6372,7 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="27">
         <v>10.58</v>
@@ -6392,7 +6395,7 @@
       </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8"/>
       <c r="C67" s="30">
         <v>11.52</v>
@@ -6400,7 +6403,7 @@
       <c r="D67" s="31">
         <v>5406</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="34">
         <f t="shared" si="1"/>
         <v>1083.4250664504939</v>
       </c>
@@ -6415,7 +6418,7 @@
       </c>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -6425,7 +6428,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>465.85365853658539</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>11</v>
       </c>
@@ -6443,7 +6446,7 @@
         <v>466.66666666666663</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>11</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>465.10791366906477</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>11</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>466.66666666666669</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>11</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>465.26315789473682</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>465.44502617801044</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>11</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>466.26865671641792</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>466.0598179453836</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>11</v>
       </c>
@@ -6506,7 +6509,7 @@
         <v>465.89861751152074</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>11</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>465.21739130434781</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>11</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>468.24196597353495</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>11</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>469.27083333333337</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>12</v>
       </c>
